--- a/Code/Results/Cases/Case_6_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_31/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.014270851672283</v>
+        <v>1.033232602451577</v>
       </c>
       <c r="D2">
-        <v>1.032812545042103</v>
+        <v>1.049119928334752</v>
       </c>
       <c r="E2">
-        <v>1.018101210694079</v>
+        <v>1.034664645913745</v>
       </c>
       <c r="F2">
-        <v>1.037001380185576</v>
+        <v>1.053590864878282</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048855860400751</v>
+        <v>1.058642192236226</v>
       </c>
       <c r="J2">
-        <v>1.036032943995325</v>
+        <v>1.054462815134234</v>
       </c>
       <c r="K2">
-        <v>1.043832919718696</v>
+        <v>1.059934869554976</v>
       </c>
       <c r="L2">
-        <v>1.029313997799033</v>
+        <v>1.0456612813116</v>
       </c>
       <c r="M2">
-        <v>1.04796821562761</v>
+        <v>1.064350864570729</v>
       </c>
       <c r="N2">
-        <v>1.037504229610438</v>
+        <v>1.0559602732803</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.021603279825315</v>
+        <v>1.039214328071498</v>
       </c>
       <c r="D3">
-        <v>1.038560891665226</v>
+        <v>1.053894383887587</v>
       </c>
       <c r="E3">
-        <v>1.024231134055871</v>
+        <v>1.039618965000344</v>
       </c>
       <c r="F3">
-        <v>1.043295457594266</v>
+        <v>1.058882953409659</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05122437101102</v>
+        <v>1.060896936276656</v>
       </c>
       <c r="J3">
-        <v>1.041521854768908</v>
+        <v>1.058690201919076</v>
       </c>
       <c r="K3">
-        <v>1.04872305302658</v>
+        <v>1.063881165653722</v>
       </c>
       <c r="L3">
-        <v>1.034563083496163</v>
+        <v>1.049768819071493</v>
       </c>
       <c r="M3">
-        <v>1.053402787156323</v>
+        <v>1.068814024793741</v>
       </c>
       <c r="N3">
-        <v>1.043000935266906</v>
+        <v>1.060193663439265</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026211733365151</v>
+        <v>1.042991413397067</v>
       </c>
       <c r="D4">
-        <v>1.042176323376027</v>
+        <v>1.05691198290139</v>
       </c>
       <c r="E4">
-        <v>1.02808941437999</v>
+        <v>1.042752399488853</v>
       </c>
       <c r="F4">
-        <v>1.047256812081699</v>
+        <v>1.062229888889488</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052701259407854</v>
+        <v>1.062311258031225</v>
       </c>
       <c r="J4">
-        <v>1.044967902303808</v>
+        <v>1.061355853970291</v>
       </c>
       <c r="K4">
-        <v>1.051791031422247</v>
+        <v>1.066368827398007</v>
       </c>
       <c r="L4">
-        <v>1.037860244882067</v>
+        <v>1.052360833194487</v>
       </c>
       <c r="M4">
-        <v>1.056816477684497</v>
+        <v>1.071631076259838</v>
       </c>
       <c r="N4">
-        <v>1.046451876584573</v>
+        <v>1.062863101022147</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028118305792845</v>
+        <v>1.044557916454929</v>
       </c>
       <c r="D5">
-        <v>1.043672584629417</v>
+        <v>1.058164111270903</v>
       </c>
       <c r="E5">
-        <v>1.029686887161931</v>
+        <v>1.044053117407288</v>
       </c>
       <c r="F5">
-        <v>1.048896888700522</v>
+        <v>1.063619205184493</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053309388715137</v>
+        <v>1.062895530726883</v>
       </c>
       <c r="J5">
-        <v>1.046392607241077</v>
+        <v>1.062460474859934</v>
       </c>
       <c r="K5">
-        <v>1.053058893443092</v>
+        <v>1.067399502042447</v>
       </c>
       <c r="L5">
-        <v>1.039223789401833</v>
+        <v>1.053435397756666</v>
       </c>
       <c r="M5">
-        <v>1.058228203149648</v>
+        <v>1.072799082713997</v>
       </c>
       <c r="N5">
-        <v>1.047878604766269</v>
+        <v>1.063969290600155</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028436669016132</v>
+        <v>1.044819713111383</v>
       </c>
       <c r="D6">
-        <v>1.04392246058374</v>
+        <v>1.058373403335943</v>
       </c>
       <c r="E6">
-        <v>1.029953707714454</v>
+        <v>1.044270562214855</v>
       </c>
       <c r="F6">
-        <v>1.049170820580132</v>
+        <v>1.063851459672995</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05341076436358</v>
+        <v>1.062993038832526</v>
       </c>
       <c r="J6">
-        <v>1.046630448599837</v>
+        <v>1.062645025143158</v>
       </c>
       <c r="K6">
-        <v>1.053270519090241</v>
+        <v>1.06757168664941</v>
       </c>
       <c r="L6">
-        <v>1.039451443495016</v>
+        <v>1.053614953299358</v>
       </c>
       <c r="M6">
-        <v>1.058463900446371</v>
+        <v>1.072994260740584</v>
       </c>
       <c r="N6">
-        <v>1.048116783887039</v>
+        <v>1.064154102965949</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026237327956771</v>
+        <v>1.043012427836508</v>
       </c>
       <c r="D7">
-        <v>1.042196407886224</v>
+        <v>1.056928777702265</v>
       </c>
       <c r="E7">
-        <v>1.028110854636869</v>
+        <v>1.042769843938742</v>
       </c>
       <c r="F7">
-        <v>1.047278824444763</v>
+        <v>1.062248521674708</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05270943464552</v>
+        <v>1.062319105129107</v>
       </c>
       <c r="J7">
-        <v>1.044987032021626</v>
+        <v>1.061370676045946</v>
       </c>
       <c r="K7">
-        <v>1.051808057343127</v>
+        <v>1.066382658004517</v>
       </c>
       <c r="L7">
-        <v>1.037878551843239</v>
+        <v>1.052375250160763</v>
       </c>
       <c r="M7">
-        <v>1.056835431580286</v>
+        <v>1.071646746308994</v>
       </c>
       <c r="N7">
-        <v>1.046471033468784</v>
+        <v>1.062877944146849</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016778173426972</v>
+        <v>1.035274134400364</v>
       </c>
       <c r="D8">
-        <v>1.034777580029366</v>
+        <v>1.050748789381586</v>
       </c>
       <c r="E8">
-        <v>1.02019609747988</v>
+        <v>1.036354420872778</v>
       </c>
       <c r="F8">
-        <v>1.039152409774454</v>
+        <v>1.055395871292114</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04966820560656</v>
+        <v>1.059413675330552</v>
       </c>
       <c r="J8">
-        <v>1.037910624087176</v>
+        <v>1.055906345174584</v>
       </c>
       <c r="K8">
-        <v>1.045506204784142</v>
+        <v>1.061282565329077</v>
       </c>
       <c r="L8">
-        <v>1.031109276193753</v>
+        <v>1.047063475510251</v>
       </c>
       <c r="M8">
-        <v>1.049826920582976</v>
+        <v>1.065874325356158</v>
       </c>
       <c r="N8">
-        <v>1.039384576223393</v>
+        <v>1.057405853298883</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9989798115421223</v>
+        <v>1.020873811721499</v>
       </c>
       <c r="D9">
-        <v>1.02084460023416</v>
+        <v>1.039274309118925</v>
       </c>
       <c r="E9">
-        <v>1.005353715327417</v>
+        <v>1.024459733903026</v>
       </c>
       <c r="F9">
-        <v>1.023911804258832</v>
+        <v>1.042689403858577</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043853917201246</v>
+        <v>1.053933535984017</v>
       </c>
       <c r="J9">
-        <v>1.024568646798446</v>
+        <v>1.045710399150199</v>
       </c>
       <c r="K9">
-        <v>1.033608304499217</v>
+        <v>1.051760777794782</v>
       </c>
       <c r="L9">
-        <v>1.018360525334154</v>
+        <v>1.037168053512931</v>
       </c>
       <c r="M9">
-        <v>1.036628486203506</v>
+        <v>1.055125865298462</v>
       </c>
       <c r="N9">
-        <v>1.026023651796566</v>
+        <v>1.047195427861652</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9862168936007053</v>
+        <v>1.010685760223289</v>
       </c>
       <c r="D10">
-        <v>1.010879922211884</v>
+        <v>1.031178871827807</v>
       </c>
       <c r="E10">
-        <v>0.9947519022796455</v>
+        <v>1.01607882831381</v>
       </c>
       <c r="F10">
-        <v>1.013025747691028</v>
+        <v>1.033735592778986</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039626752223167</v>
+        <v>1.050009714868036</v>
       </c>
       <c r="J10">
-        <v>1.014988240596165</v>
+        <v>1.038481736819424</v>
       </c>
       <c r="K10">
-        <v>1.025055476152552</v>
+        <v>1.045007111935548</v>
       </c>
       <c r="L10">
-        <v>1.009216563703181</v>
+        <v>1.030163718824052</v>
       </c>
       <c r="M10">
-        <v>1.02716373464364</v>
+        <v>1.047521332711124</v>
       </c>
       <c r="N10">
-        <v>1.01642964031859</v>
+        <v>1.039956500001228</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9804416534971746</v>
+        <v>1.006116276446451</v>
       </c>
       <c r="D11">
-        <v>1.006379350972691</v>
+        <v>1.027554548836541</v>
       </c>
       <c r="E11">
-        <v>0.9899662876890474</v>
+        <v>1.012329193641121</v>
       </c>
       <c r="F11">
-        <v>1.008112159098304</v>
+        <v>1.029729380785599</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037701425398606</v>
+        <v>1.048239501913318</v>
       </c>
       <c r="J11">
-        <v>1.010651341732948</v>
+        <v>1.035236806332049</v>
       </c>
       <c r="K11">
-        <v>1.021181956560578</v>
+        <v>1.041974885487885</v>
       </c>
       <c r="L11">
-        <v>1.005079938654747</v>
+        <v>1.02702228566086</v>
       </c>
       <c r="M11">
-        <v>1.022882696497864</v>
+        <v>1.044111609018726</v>
       </c>
       <c r="N11">
-        <v>1.012086582561538</v>
+        <v>1.036706961340362</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.978255556905308</v>
+        <v>1.004393473442692</v>
       </c>
       <c r="D12">
-        <v>1.004677234245831</v>
+        <v>1.0261891979495</v>
       </c>
       <c r="E12">
-        <v>0.9881567355695948</v>
+        <v>1.010916999256848</v>
       </c>
       <c r="F12">
-        <v>1.006254294534917</v>
+        <v>1.028220511814937</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036970866276655</v>
+        <v>1.047570608634115</v>
       </c>
       <c r="J12">
-        <v>1.009009567057398</v>
+        <v>1.034013050494852</v>
       </c>
       <c r="K12">
-        <v>1.019715371099996</v>
+        <v>1.040831284966066</v>
       </c>
       <c r="L12">
-        <v>1.003514406449365</v>
+        <v>1.025837993490521</v>
       </c>
       <c r="M12">
-        <v>1.021262645108237</v>
+        <v>1.042826312513668</v>
       </c>
       <c r="N12">
-        <v>1.010442476377634</v>
+        <v>1.03548146762951</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9787263953216488</v>
+        <v>1.004764204245314</v>
       </c>
       <c r="D13">
-        <v>1.005043763335908</v>
+        <v>1.026482956676997</v>
       </c>
       <c r="E13">
-        <v>0.9885463835818361</v>
+        <v>1.011220820231343</v>
       </c>
       <c r="F13">
-        <v>1.006654341614002</v>
+        <v>1.028545133406955</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037128290835658</v>
+        <v>1.047714613817689</v>
       </c>
       <c r="J13">
-        <v>1.009363173892783</v>
+        <v>1.034276405195453</v>
       </c>
       <c r="K13">
-        <v>1.020031255089643</v>
+        <v>1.041077392574647</v>
       </c>
       <c r="L13">
-        <v>1.003851572488461</v>
+        <v>1.026092835831254</v>
       </c>
       <c r="M13">
-        <v>1.021611546275122</v>
+        <v>1.043102883171255</v>
       </c>
       <c r="N13">
-        <v>1.010796585375284</v>
+        <v>1.035745196323993</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9802618068006949</v>
+        <v>1.005974399834036</v>
       </c>
       <c r="D14">
-        <v>1.00623928922524</v>
+        <v>1.027442086085794</v>
       </c>
       <c r="E14">
-        <v>0.9898173782093908</v>
+        <v>1.012212865108559</v>
       </c>
       <c r="F14">
-        <v>1.007959272207071</v>
+        <v>1.029605089621562</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037641358580186</v>
+        <v>1.048184446738633</v>
       </c>
       <c r="J14">
-        <v>1.010516277412354</v>
+        <v>1.035136033806835</v>
       </c>
       <c r="K14">
-        <v>1.021061308938075</v>
+        <v>1.041880714652529</v>
       </c>
       <c r="L14">
-        <v>1.004951137809026</v>
+        <v>1.026924754008414</v>
       </c>
       <c r="M14">
-        <v>1.02274940729199</v>
+        <v>1.044005756373479</v>
       </c>
       <c r="N14">
-        <v>1.011951326434116</v>
+        <v>1.036606045706603</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9812022893294661</v>
+        <v>1.00671660772411</v>
       </c>
       <c r="D15">
-        <v>1.006971783535704</v>
+        <v>1.028030465071577</v>
       </c>
       <c r="E15">
-        <v>0.9905961590615757</v>
+        <v>1.012821483714675</v>
       </c>
       <c r="F15">
-        <v>1.008758857824995</v>
+        <v>1.03025536614767</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037955398312582</v>
+        <v>1.0484724004053</v>
       </c>
       <c r="J15">
-        <v>1.011222572367687</v>
+        <v>1.035663197947944</v>
       </c>
       <c r="K15">
-        <v>1.021692205335545</v>
+        <v>1.042373341445256</v>
       </c>
       <c r="L15">
-        <v>1.005624696510252</v>
+        <v>1.027434982052627</v>
       </c>
       <c r="M15">
-        <v>1.023446443345944</v>
+        <v>1.044559520616294</v>
       </c>
       <c r="N15">
-        <v>1.012658624409299</v>
+        <v>1.037133958481259</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9865946436075005</v>
+        <v>1.01098554698146</v>
       </c>
       <c r="D16">
-        <v>1.011174490161385</v>
+        <v>1.031416796454829</v>
       </c>
       <c r="E16">
-        <v>0.9950651796858719</v>
+        <v>1.016325030158743</v>
       </c>
       <c r="F16">
-        <v>1.013347411699912</v>
+        <v>1.033998635912468</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039752435185802</v>
+        <v>1.050125643234299</v>
       </c>
       <c r="J16">
-        <v>1.015271885243515</v>
+        <v>1.038694573242586</v>
       </c>
       <c r="K16">
-        <v>1.025308780926291</v>
+        <v>1.045205987578721</v>
       </c>
       <c r="L16">
-        <v>1.009487167531719</v>
+        <v>1.030369825854631</v>
       </c>
       <c r="M16">
-        <v>1.027443802463593</v>
+        <v>1.047745061041679</v>
       </c>
       <c r="N16">
-        <v>1.016713687773874</v>
+        <v>1.040169638676524</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9899081539870083</v>
+        <v>1.013619852885332</v>
       </c>
       <c r="D17">
-        <v>1.013759329899007</v>
+        <v>1.033508263884722</v>
       </c>
       <c r="E17">
-        <v>0.9978144980776846</v>
+        <v>1.018489539809451</v>
       </c>
       <c r="F17">
-        <v>1.016170371330399</v>
+        <v>1.036311177835566</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040853487634254</v>
+        <v>1.051143173910109</v>
       </c>
       <c r="J17">
-        <v>1.017759748208908</v>
+        <v>1.040564517516952</v>
       </c>
       <c r="K17">
-        <v>1.027530333876538</v>
+        <v>1.046953217718263</v>
       </c>
       <c r="L17">
-        <v>1.011860955879995</v>
+        <v>1.032180965171716</v>
       </c>
       <c r="M17">
-        <v>1.029900693810393</v>
+        <v>1.049711147458438</v>
       </c>
       <c r="N17">
-        <v>1.01920508379004</v>
+        <v>1.042042238486244</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9918171230578455</v>
+        <v>1.015141282467289</v>
       </c>
       <c r="D18">
-        <v>1.015249279867906</v>
+        <v>1.034716795025086</v>
       </c>
       <c r="E18">
-        <v>0.9993995153418594</v>
+        <v>1.019740514027089</v>
       </c>
       <c r="F18">
-        <v>1.01779787303621</v>
+        <v>1.037647682800898</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041486637290922</v>
+        <v>1.051729863280944</v>
       </c>
       <c r="J18">
-        <v>1.01919287428647</v>
+        <v>1.041644226695315</v>
       </c>
       <c r="K18">
-        <v>1.02880988191985</v>
+        <v>1.047962021198897</v>
       </c>
       <c r="L18">
-        <v>1.01322862198947</v>
+        <v>1.033226983573858</v>
       </c>
       <c r="M18">
-        <v>1.03131630459184</v>
+        <v>1.050846739605007</v>
       </c>
       <c r="N18">
-        <v>1.020640245071013</v>
+        <v>1.043123480975485</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9924641046379393</v>
+        <v>1.01565753725861</v>
       </c>
       <c r="D19">
-        <v>1.015754375396122</v>
+        <v>1.035126977540399</v>
       </c>
       <c r="E19">
-        <v>0.999936883866906</v>
+        <v>1.020165142383459</v>
       </c>
       <c r="F19">
-        <v>1.018349649274845</v>
+        <v>1.038101339539956</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041701018047433</v>
+        <v>1.051928771742162</v>
       </c>
       <c r="J19">
-        <v>1.019678551620177</v>
+        <v>1.042010548441898</v>
       </c>
       <c r="K19">
-        <v>1.029243482481197</v>
+        <v>1.048304277172968</v>
       </c>
       <c r="L19">
-        <v>1.013692157586555</v>
+        <v>1.033581919111557</v>
       </c>
       <c r="M19">
-        <v>1.03179609998349</v>
+        <v>1.05123208357583</v>
       </c>
       <c r="N19">
-        <v>1.021126612122242</v>
+        <v>1.043490322940966</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9895551258912306</v>
+        <v>1.013338792521463</v>
       </c>
       <c r="D20">
-        <v>1.013483853342946</v>
+        <v>1.033285055608385</v>
       </c>
       <c r="E20">
-        <v>0.9975214657750379</v>
+        <v>1.018258511755797</v>
       </c>
       <c r="F20">
-        <v>1.015869486846477</v>
+        <v>1.036064352154385</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040736301674737</v>
+        <v>1.051034712429903</v>
       </c>
       <c r="J20">
-        <v>1.017494703423953</v>
+        <v>1.040365035950191</v>
       </c>
       <c r="K20">
-        <v>1.027293677949022</v>
+        <v>1.046766832138662</v>
       </c>
       <c r="L20">
-        <v>1.011608037678087</v>
+        <v>1.031987729367812</v>
       </c>
       <c r="M20">
-        <v>1.029638914392774</v>
+        <v>1.049501371092241</v>
       </c>
       <c r="N20">
-        <v>1.018939662611088</v>
+        <v>1.041842473632778</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9798108265365024</v>
+        <v>1.005618746104078</v>
       </c>
       <c r="D21">
-        <v>1.005888097525278</v>
+        <v>1.02716018466845</v>
       </c>
       <c r="E21">
-        <v>0.9894440074242273</v>
+        <v>1.01192127946279</v>
       </c>
       <c r="F21">
-        <v>1.007575929935601</v>
+        <v>1.029293544393846</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037490708136743</v>
+        <v>1.048046411825099</v>
       </c>
       <c r="J21">
-        <v>1.010177590955221</v>
+        <v>1.034883413847534</v>
       </c>
       <c r="K21">
-        <v>1.02075877019486</v>
+        <v>1.041644643102041</v>
       </c>
       <c r="L21">
-        <v>1.004628164542352</v>
+        <v>1.026680265370336</v>
       </c>
       <c r="M21">
-        <v>1.022415181554001</v>
+        <v>1.043740411235554</v>
       </c>
       <c r="N21">
-        <v>1.011612159003366</v>
+        <v>1.036353066997984</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9734453735012419</v>
+        <v>1.000616351148887</v>
       </c>
       <c r="D22">
-        <v>1.000934961538042</v>
+        <v>1.02319793075846</v>
       </c>
       <c r="E22">
-        <v>0.9841788855289568</v>
+        <v>1.00782376262283</v>
       </c>
       <c r="F22">
-        <v>1.00217041805695</v>
+        <v>1.024915440761376</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035360257507245</v>
+        <v>1.046101461883546</v>
       </c>
       <c r="J22">
-        <v>1.005396998204155</v>
+        <v>1.031329515618197</v>
       </c>
       <c r="K22">
-        <v>1.016487919383827</v>
+        <v>1.038323426611534</v>
       </c>
       <c r="L22">
-        <v>1.000070414910394</v>
+        <v>1.023241806388212</v>
       </c>
       <c r="M22">
-        <v>1.017699000812029</v>
+        <v>1.040008965735174</v>
       </c>
       <c r="N22">
-        <v>1.006824777262252</v>
+        <v>1.032794121825524</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9768437632039402</v>
+        <v>1.003282923609305</v>
       </c>
       <c r="D23">
-        <v>1.003578443123862</v>
+        <v>1.025309394378499</v>
       </c>
       <c r="E23">
-        <v>0.9869886884865758</v>
+        <v>1.010007111839831</v>
       </c>
       <c r="F23">
-        <v>1.005055087860385</v>
+        <v>1.02724832401712</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036498584417754</v>
+        <v>1.047139019676095</v>
       </c>
       <c r="J23">
-        <v>1.007949279976712</v>
+        <v>1.033224109493466</v>
       </c>
       <c r="K23">
-        <v>1.018768165729315</v>
+        <v>1.040094004044802</v>
       </c>
       <c r="L23">
-        <v>1.002503481283619</v>
+        <v>1.025074617516731</v>
       </c>
       <c r="M23">
-        <v>1.02021655664177</v>
+        <v>1.041997870409119</v>
       </c>
       <c r="N23">
-        <v>1.009380683567677</v>
+        <v>1.034691406241408</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9897147172106208</v>
+        <v>1.01346583818638</v>
       </c>
       <c r="D24">
-        <v>1.013608383988754</v>
+        <v>1.033385948916206</v>
       </c>
       <c r="E24">
-        <v>0.9976539317831753</v>
+        <v>1.018362938979548</v>
       </c>
       <c r="F24">
-        <v>1.016005502364368</v>
+        <v>1.036175920154603</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040789280927163</v>
+        <v>1.051083742527926</v>
       </c>
       <c r="J24">
-        <v>1.017614521198325</v>
+        <v>1.040455206982166</v>
       </c>
       <c r="K24">
-        <v>1.027400662616102</v>
+        <v>1.046851083589779</v>
       </c>
       <c r="L24">
-        <v>1.011722372652316</v>
+        <v>1.032075076330716</v>
       </c>
       <c r="M24">
-        <v>1.029757254996636</v>
+        <v>1.049596194502305</v>
       </c>
       <c r="N24">
-        <v>1.019059650540443</v>
+        <v>1.041932772717961</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.003728262926035</v>
+        <v>1.024694446897158</v>
       </c>
       <c r="D25">
-        <v>1.024557950519462</v>
+        <v>1.042315171889728</v>
       </c>
       <c r="E25">
-        <v>1.009307047063345</v>
+        <v>1.027610032990198</v>
       </c>
       <c r="F25">
-        <v>1.027971253604311</v>
+        <v>1.046054850283809</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045415323652678</v>
+        <v>1.055395738652584</v>
       </c>
       <c r="J25">
-        <v>1.028130804309223</v>
+        <v>1.048418395974668</v>
       </c>
       <c r="K25">
-        <v>1.036786632634227</v>
+        <v>1.05429028502916</v>
       </c>
       <c r="L25">
-        <v>1.021762580948701</v>
+        <v>1.03979434159223</v>
       </c>
       <c r="M25">
-        <v>1.040150332606644</v>
+        <v>1.057977945915269</v>
       </c>
       <c r="N25">
-        <v>1.029590867979594</v>
+        <v>1.049907270352223</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_31/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.033232602451577</v>
+        <v>1.018597061830934</v>
       </c>
       <c r="D2">
-        <v>1.049119928334752</v>
+        <v>1.036805814928962</v>
       </c>
       <c r="E2">
-        <v>1.034664645913745</v>
+        <v>1.022415977362594</v>
       </c>
       <c r="F2">
-        <v>1.053590864878282</v>
+        <v>1.041172825269004</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.058642192236226</v>
+        <v>1.051781855700933</v>
       </c>
       <c r="J2">
-        <v>1.054462815134234</v>
+        <v>1.040235417603326</v>
       </c>
       <c r="K2">
-        <v>1.059934869554976</v>
+        <v>1.047775137946982</v>
       </c>
       <c r="L2">
-        <v>1.0456612813116</v>
+        <v>1.033571611260415</v>
       </c>
       <c r="M2">
-        <v>1.064350864570729</v>
+        <v>1.052086877882529</v>
       </c>
       <c r="N2">
-        <v>1.0559602732803</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.016984277777663</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.044851424392694</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.039214328071498</v>
+        <v>1.022665571819369</v>
       </c>
       <c r="D3">
-        <v>1.053894383887587</v>
+        <v>1.039647800715665</v>
       </c>
       <c r="E3">
-        <v>1.039618965000344</v>
+        <v>1.025658084323255</v>
       </c>
       <c r="F3">
-        <v>1.058882953409659</v>
+        <v>1.044589870807956</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.060896936276656</v>
+        <v>1.052919218946874</v>
       </c>
       <c r="J3">
-        <v>1.058690201919076</v>
+        <v>1.042556858528221</v>
       </c>
       <c r="K3">
-        <v>1.063881165653722</v>
+        <v>1.049797319809214</v>
       </c>
       <c r="L3">
-        <v>1.049768819071493</v>
+        <v>1.035972862466141</v>
       </c>
       <c r="M3">
-        <v>1.068814024793741</v>
+        <v>1.054682316378203</v>
       </c>
       <c r="N3">
-        <v>1.060193663439265</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.017783462925876</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.046278618115087</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.042991413397067</v>
+        <v>1.025251846154131</v>
       </c>
       <c r="D4">
-        <v>1.05691198290139</v>
+        <v>1.041458907442815</v>
       </c>
       <c r="E4">
-        <v>1.042752399488853</v>
+        <v>1.027724704196203</v>
       </c>
       <c r="F4">
-        <v>1.062229888889488</v>
+        <v>1.046768018105536</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.062311258031225</v>
+        <v>1.053635219848736</v>
       </c>
       <c r="J4">
-        <v>1.061355853970291</v>
+        <v>1.044030944592466</v>
       </c>
       <c r="K4">
-        <v>1.066368827398007</v>
+        <v>1.051081441147151</v>
       </c>
       <c r="L4">
-        <v>1.052360833194487</v>
+        <v>1.037499646723766</v>
       </c>
       <c r="M4">
-        <v>1.071631076259838</v>
+        <v>1.056332950865034</v>
       </c>
       <c r="N4">
-        <v>1.062863101022147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.018290782265445</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.047187474058519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.044557916454929</v>
+        <v>1.026332697169622</v>
       </c>
       <c r="D5">
-        <v>1.058164111270903</v>
+        <v>1.042218954016571</v>
       </c>
       <c r="E5">
-        <v>1.044053117407288</v>
+        <v>1.028590215738935</v>
       </c>
       <c r="F5">
-        <v>1.063619205184493</v>
+        <v>1.047680898932097</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.062895530726883</v>
+        <v>1.053934486476529</v>
       </c>
       <c r="J5">
-        <v>1.062460474859934</v>
+        <v>1.044648335282514</v>
       </c>
       <c r="K5">
-        <v>1.067399502042447</v>
+        <v>1.051620684659568</v>
       </c>
       <c r="L5">
-        <v>1.053435397756666</v>
+        <v>1.038139139213086</v>
       </c>
       <c r="M5">
-        <v>1.072799082713997</v>
+        <v>1.057024953811087</v>
       </c>
       <c r="N5">
-        <v>1.063969290600155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.018503705087292</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.047575856037494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.044819713111383</v>
+        <v>1.02651881571888</v>
       </c>
       <c r="D6">
-        <v>1.058373403335943</v>
+        <v>1.042352447322952</v>
       </c>
       <c r="E6">
-        <v>1.044270562214855</v>
+        <v>1.028739942460718</v>
       </c>
       <c r="F6">
-        <v>1.063851459672995</v>
+        <v>1.047839617027399</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.062993038832526</v>
+        <v>1.053988044892426</v>
       </c>
       <c r="J6">
-        <v>1.062645025143158</v>
+        <v>1.044756757635375</v>
       </c>
       <c r="K6">
-        <v>1.06757168664941</v>
+        <v>1.051717083924573</v>
       </c>
       <c r="L6">
-        <v>1.053614953299358</v>
+        <v>1.038250919504409</v>
       </c>
       <c r="M6">
-        <v>1.072994260740584</v>
+        <v>1.057146578093172</v>
       </c>
       <c r="N6">
-        <v>1.064154102965949</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.018541682310234</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.047652672883469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.043012427836508</v>
+        <v>1.025280512476267</v>
       </c>
       <c r="D7">
-        <v>1.056928777702265</v>
+        <v>1.041485910016193</v>
       </c>
       <c r="E7">
-        <v>1.042769843938742</v>
+        <v>1.027749311353138</v>
       </c>
       <c r="F7">
-        <v>1.062248521674708</v>
+        <v>1.046796087389585</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.062319105129107</v>
+        <v>1.053648889381961</v>
       </c>
       <c r="J7">
-        <v>1.061370676045946</v>
+        <v>1.044053062736353</v>
       </c>
       <c r="K7">
-        <v>1.066382658004517</v>
+        <v>1.051105306662257</v>
       </c>
       <c r="L7">
-        <v>1.052375250160763</v>
+        <v>1.037521083294075</v>
       </c>
       <c r="M7">
-        <v>1.071646746308994</v>
+        <v>1.056357894381913</v>
       </c>
       <c r="N7">
-        <v>1.062877944146849</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.018300011716137</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.047224260935779</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035274134400364</v>
+        <v>1.019999746473913</v>
       </c>
       <c r="D8">
-        <v>1.050748789381586</v>
+        <v>1.037793210741948</v>
       </c>
       <c r="E8">
-        <v>1.036354420872778</v>
+        <v>1.023534726253648</v>
       </c>
       <c r="F8">
-        <v>1.055395871292114</v>
+        <v>1.042354479323644</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.059413675330552</v>
+        <v>1.052182566789452</v>
       </c>
       <c r="J8">
-        <v>1.055906345174584</v>
+        <v>1.041043288064727</v>
       </c>
       <c r="K8">
-        <v>1.061282565329077</v>
+        <v>1.048484473195845</v>
       </c>
       <c r="L8">
-        <v>1.047063475510251</v>
+        <v>1.034405068887592</v>
       </c>
       <c r="M8">
-        <v>1.065874325356158</v>
+        <v>1.052989740464652</v>
       </c>
       <c r="N8">
-        <v>1.057405853298883</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.017264532305521</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.045375680871856</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.020873811721499</v>
+        <v>1.010299826489679</v>
       </c>
       <c r="D9">
-        <v>1.039274309118925</v>
+        <v>1.031036950752173</v>
       </c>
       <c r="E9">
-        <v>1.024459733903026</v>
+        <v>1.01583706391193</v>
       </c>
       <c r="F9">
-        <v>1.042689403858577</v>
+        <v>1.034239092968558</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053933535984017</v>
+        <v>1.049425823781936</v>
       </c>
       <c r="J9">
-        <v>1.045710399150199</v>
+        <v>1.035494041538704</v>
       </c>
       <c r="K9">
-        <v>1.051760777794782</v>
+        <v>1.043645773836578</v>
       </c>
       <c r="L9">
-        <v>1.037168053512931</v>
+        <v>1.028678317092588</v>
       </c>
       <c r="M9">
-        <v>1.055125865298462</v>
+        <v>1.046800058273795</v>
       </c>
       <c r="N9">
-        <v>1.047195427861652</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.015351601676728</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.041951295542185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.010685760223289</v>
+        <v>1.003563763916623</v>
       </c>
       <c r="D10">
-        <v>1.031178871827807</v>
+        <v>1.02637588832351</v>
       </c>
       <c r="E10">
-        <v>1.01607882831381</v>
+        <v>1.010526362445872</v>
       </c>
       <c r="F10">
-        <v>1.033735592778986</v>
+        <v>1.02864101973094</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050009714868036</v>
+        <v>1.047478942348063</v>
       </c>
       <c r="J10">
-        <v>1.038481736819424</v>
+        <v>1.031636697614863</v>
       </c>
       <c r="K10">
-        <v>1.045007111935548</v>
+        <v>1.040284706584097</v>
       </c>
       <c r="L10">
-        <v>1.030163718824052</v>
+        <v>1.024708126002362</v>
       </c>
       <c r="M10">
-        <v>1.047521332711124</v>
+        <v>1.042511715718312</v>
       </c>
       <c r="N10">
-        <v>1.039956500001228</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.01402223331165</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.03959154049579</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.006116276446451</v>
+        <v>1.000595195828468</v>
       </c>
       <c r="D11">
-        <v>1.027554548836541</v>
+        <v>1.024337718417748</v>
       </c>
       <c r="E11">
-        <v>1.012329193641121</v>
+        <v>1.008197259887725</v>
       </c>
       <c r="F11">
-        <v>1.029729380785599</v>
+        <v>1.026188150235415</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048239501913318</v>
+        <v>1.046620490089699</v>
       </c>
       <c r="J11">
-        <v>1.035236806332049</v>
+        <v>1.029943234903731</v>
       </c>
       <c r="K11">
-        <v>1.041974885487885</v>
+        <v>1.038814806744398</v>
       </c>
       <c r="L11">
-        <v>1.02702228566086</v>
+        <v>1.022966226072092</v>
       </c>
       <c r="M11">
-        <v>1.044111609018726</v>
+        <v>1.040632536682483</v>
       </c>
       <c r="N11">
-        <v>1.036706961340362</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.013441092071106</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.038584937677591</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.004393473442692</v>
+        <v>0.9994709455523104</v>
       </c>
       <c r="D12">
-        <v>1.0261891979495</v>
+        <v>1.023562209847652</v>
       </c>
       <c r="E12">
-        <v>1.010916999256848</v>
+        <v>1.007315115093637</v>
       </c>
       <c r="F12">
-        <v>1.028220511814937</v>
+        <v>1.025257876094154</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047570608634115</v>
+        <v>1.046290273330574</v>
       </c>
       <c r="J12">
-        <v>1.034013050494852</v>
+        <v>1.029297712801928</v>
       </c>
       <c r="K12">
-        <v>1.040831284966066</v>
+        <v>1.038251501601766</v>
       </c>
       <c r="L12">
-        <v>1.025837993490521</v>
+        <v>1.022303498246015</v>
       </c>
       <c r="M12">
-        <v>1.042826312513668</v>
+        <v>1.039916662211099</v>
       </c>
       <c r="N12">
-        <v>1.03548146762951</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.01321822480875</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.038186666170792</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.004764204245314</v>
+        <v>0.9997105401567524</v>
       </c>
       <c r="D13">
-        <v>1.026482956676997</v>
+        <v>1.023726495020228</v>
       </c>
       <c r="E13">
-        <v>1.011220820231343</v>
+        <v>1.007502764493191</v>
       </c>
       <c r="F13">
-        <v>1.028545133406955</v>
+        <v>1.02545552201656</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047714613817689</v>
+        <v>1.046359919289422</v>
       </c>
       <c r="J13">
-        <v>1.034276405195453</v>
+        <v>1.029434489625909</v>
       </c>
       <c r="K13">
-        <v>1.041077392574647</v>
+        <v>1.038370268284339</v>
       </c>
       <c r="L13">
-        <v>1.026092835831254</v>
+        <v>1.022444065310229</v>
       </c>
       <c r="M13">
-        <v>1.043102883171255</v>
+        <v>1.040068307498261</v>
       </c>
       <c r="N13">
-        <v>1.035745196323993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.013265179764462</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.038268155523105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.005974399834036</v>
+        <v>1.000501611842414</v>
       </c>
       <c r="D14">
-        <v>1.027442086085794</v>
+        <v>1.024272741040239</v>
       </c>
       <c r="E14">
-        <v>1.012212865108559</v>
+        <v>1.008123678999102</v>
       </c>
       <c r="F14">
-        <v>1.029605089621562</v>
+        <v>1.026110451156892</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048184446738633</v>
+        <v>1.04659269302303</v>
       </c>
       <c r="J14">
-        <v>1.035136033806835</v>
+        <v>1.029889162309579</v>
       </c>
       <c r="K14">
-        <v>1.041880714652529</v>
+        <v>1.038767368937648</v>
       </c>
       <c r="L14">
-        <v>1.026924754008414</v>
+        <v>1.022910773777186</v>
       </c>
       <c r="M14">
-        <v>1.044005756373479</v>
+        <v>1.040572553810161</v>
       </c>
       <c r="N14">
-        <v>1.036606045706603</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.013422309761922</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.038550334828843</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.00671660772411</v>
+        <v>1.000991620441692</v>
       </c>
       <c r="D15">
-        <v>1.028030465071577</v>
+        <v>1.024613109435796</v>
       </c>
       <c r="E15">
-        <v>1.012821483714675</v>
+        <v>1.00850903532317</v>
       </c>
       <c r="F15">
-        <v>1.03025536614767</v>
+        <v>1.026517401759399</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.0484724004053</v>
+        <v>1.046738272639084</v>
       </c>
       <c r="J15">
-        <v>1.035663197947944</v>
+        <v>1.030172365381927</v>
       </c>
       <c r="K15">
-        <v>1.042373341445256</v>
+        <v>1.039015885601876</v>
       </c>
       <c r="L15">
-        <v>1.027434982052627</v>
+        <v>1.023201202050075</v>
       </c>
       <c r="M15">
-        <v>1.044559520616294</v>
+        <v>1.040886735534089</v>
       </c>
       <c r="N15">
-        <v>1.037133958481259</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.01352070736248</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.038731887489774</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.01098554698146</v>
+        <v>1.003794421399029</v>
       </c>
       <c r="D16">
-        <v>1.031416796454829</v>
+        <v>1.026550556355058</v>
       </c>
       <c r="E16">
-        <v>1.016325030158743</v>
+        <v>1.010712358482134</v>
       </c>
       <c r="F16">
-        <v>1.033998635912468</v>
+        <v>1.028841176641075</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050125643234299</v>
+        <v>1.047558891096749</v>
       </c>
       <c r="J16">
-        <v>1.038694573242586</v>
+        <v>1.031781992209885</v>
       </c>
       <c r="K16">
-        <v>1.045205987578721</v>
+        <v>1.040421106786159</v>
       </c>
       <c r="L16">
-        <v>1.030369825854631</v>
+        <v>1.024854736952175</v>
       </c>
       <c r="M16">
-        <v>1.047745061041679</v>
+        <v>1.042673306338237</v>
       </c>
       <c r="N16">
-        <v>1.040169638676524</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.014076624415162</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.039728567738414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.013619852885332</v>
+        <v>1.005532923411443</v>
       </c>
       <c r="D17">
-        <v>1.033508263884722</v>
+        <v>1.027754248564185</v>
       </c>
       <c r="E17">
-        <v>1.018489539809451</v>
+        <v>1.012081340623686</v>
       </c>
       <c r="F17">
-        <v>1.036311177835566</v>
+        <v>1.03028501093664</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051143173910109</v>
+        <v>1.04806582436187</v>
       </c>
       <c r="J17">
-        <v>1.040564517516952</v>
+        <v>1.032780127496643</v>
       </c>
       <c r="K17">
-        <v>1.046953217718263</v>
+        <v>1.041292537213008</v>
       </c>
       <c r="L17">
-        <v>1.032180965171716</v>
+        <v>1.025880804997207</v>
       </c>
       <c r="M17">
-        <v>1.049711147458438</v>
+        <v>1.043782083618139</v>
       </c>
       <c r="N17">
-        <v>1.042042238486244</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.014421322931112</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.040347265144544</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.015141282467289</v>
+        <v>1.006529312233376</v>
       </c>
       <c r="D18">
-        <v>1.034716795025086</v>
+        <v>1.028439879651396</v>
       </c>
       <c r="E18">
-        <v>1.019740514027089</v>
+        <v>1.012865317241187</v>
       </c>
       <c r="F18">
-        <v>1.037647682800898</v>
+        <v>1.031110533321773</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051729863280944</v>
+        <v>1.04835151530228</v>
       </c>
       <c r="J18">
-        <v>1.041644226695315</v>
+        <v>1.033347899319957</v>
       </c>
       <c r="K18">
-        <v>1.047962021198897</v>
+        <v>1.04178511959369</v>
       </c>
       <c r="L18">
-        <v>1.033226983573858</v>
+        <v>1.026465613231274</v>
       </c>
       <c r="M18">
-        <v>1.050846739605007</v>
+        <v>1.044413029422251</v>
       </c>
       <c r="N18">
-        <v>1.043123480975485</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.014616034585425</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.040683960196256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.01565753725861</v>
+        <v>1.006876214906212</v>
       </c>
       <c r="D19">
-        <v>1.035126977540399</v>
+        <v>1.028682537131817</v>
       </c>
       <c r="E19">
-        <v>1.020165142383459</v>
+        <v>1.0131395262965</v>
       </c>
       <c r="F19">
-        <v>1.038101339539956</v>
+        <v>1.031400307835085</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051928771742162</v>
+        <v>1.048454048084491</v>
       </c>
       <c r="J19">
-        <v>1.042010548441898</v>
+        <v>1.033548816581329</v>
       </c>
       <c r="K19">
-        <v>1.048304277172968</v>
+        <v>1.041961890841659</v>
       </c>
       <c r="L19">
-        <v>1.033581919111557</v>
+        <v>1.026671896073062</v>
       </c>
       <c r="M19">
-        <v>1.05123208357583</v>
+        <v>1.044636423786156</v>
       </c>
       <c r="N19">
-        <v>1.043490322940966</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.014685998775546</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.040815297756581</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.013338792521463</v>
+        <v>1.005346277612419</v>
       </c>
       <c r="D20">
-        <v>1.033285055608385</v>
+        <v>1.027624566644756</v>
       </c>
       <c r="E20">
-        <v>1.018258511755797</v>
+        <v>1.011934168359691</v>
       </c>
       <c r="F20">
-        <v>1.036064352154385</v>
+        <v>1.030129689199657</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051034712429903</v>
+        <v>1.048011160063047</v>
       </c>
       <c r="J20">
-        <v>1.040365035950191</v>
+        <v>1.03267265354206</v>
       </c>
       <c r="K20">
-        <v>1.046766832138662</v>
+        <v>1.041198461785615</v>
       </c>
       <c r="L20">
-        <v>1.031987729367812</v>
+        <v>1.025770366319042</v>
       </c>
       <c r="M20">
-        <v>1.049501371092241</v>
+        <v>1.043662655620897</v>
       </c>
       <c r="N20">
-        <v>1.041842473632778</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.014384102831903</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.040279423403913</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.005618746104078</v>
+        <v>1.000280648523118</v>
       </c>
       <c r="D21">
-        <v>1.02716018466845</v>
+        <v>1.024125370962239</v>
       </c>
       <c r="E21">
-        <v>1.01192127946279</v>
+        <v>1.007951811083329</v>
       </c>
       <c r="F21">
-        <v>1.029293544393846</v>
+        <v>1.025930522998934</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048046411825099</v>
+        <v>1.046532072727143</v>
       </c>
       <c r="J21">
-        <v>1.034883413847534</v>
+        <v>1.029766640621973</v>
       </c>
       <c r="K21">
-        <v>1.041644643102041</v>
+        <v>1.038663655643462</v>
       </c>
       <c r="L21">
-        <v>1.026680265370336</v>
+        <v>1.022784083902028</v>
       </c>
       <c r="M21">
-        <v>1.043740411235554</v>
+        <v>1.040436741248972</v>
       </c>
       <c r="N21">
-        <v>1.036353066997984</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.013381463572868</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.038490458057652</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.000616351148887</v>
+        <v>0.9970151514007256</v>
       </c>
       <c r="D22">
-        <v>1.02319793075846</v>
+        <v>1.021869741945757</v>
       </c>
       <c r="E22">
-        <v>1.00782376262283</v>
+        <v>1.005390530033189</v>
       </c>
       <c r="F22">
-        <v>1.024915440761376</v>
+        <v>1.023228139889902</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046101461883546</v>
+        <v>1.045566354491574</v>
       </c>
       <c r="J22">
-        <v>1.031329515618197</v>
+        <v>1.027886913711678</v>
       </c>
       <c r="K22">
-        <v>1.038323426611534</v>
+        <v>1.037020057793168</v>
       </c>
       <c r="L22">
-        <v>1.023241806388212</v>
+        <v>1.020855950530102</v>
       </c>
       <c r="M22">
-        <v>1.040008965735174</v>
+        <v>1.038353072199949</v>
       </c>
       <c r="N22">
-        <v>1.032794121825524</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.012730951987342</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.037314936887725</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.003282923609305</v>
+        <v>0.9987386936722872</v>
       </c>
       <c r="D23">
-        <v>1.025309394378499</v>
+        <v>1.023053352985775</v>
       </c>
       <c r="E23">
-        <v>1.010007111839831</v>
+        <v>1.006739685717946</v>
       </c>
       <c r="F23">
-        <v>1.02724832401712</v>
+        <v>1.024650005729306</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047139019676095</v>
+        <v>1.04607146657223</v>
       </c>
       <c r="J23">
-        <v>1.033224109493466</v>
+        <v>1.028873745701645</v>
       </c>
       <c r="K23">
-        <v>1.040094004044802</v>
+        <v>1.037878978255126</v>
       </c>
       <c r="L23">
-        <v>1.025074617516731</v>
+        <v>1.021869054106776</v>
       </c>
       <c r="M23">
-        <v>1.041997870409119</v>
+        <v>1.039446579005084</v>
       </c>
       <c r="N23">
-        <v>1.034691406241408</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.013070673051709</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.037912632504913</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.01346583818638</v>
+        <v>1.005407953334194</v>
       </c>
       <c r="D24">
-        <v>1.033385948916206</v>
+        <v>1.027657125103172</v>
       </c>
       <c r="E24">
-        <v>1.018362938979548</v>
+        <v>1.011979768309848</v>
       </c>
       <c r="F24">
-        <v>1.036175920154603</v>
+        <v>1.030175061005066</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051083742527926</v>
+        <v>1.04802064243586</v>
       </c>
       <c r="J24">
-        <v>1.040455206982166</v>
+        <v>1.032699406109499</v>
       </c>
       <c r="K24">
-        <v>1.046851083589779</v>
+        <v>1.041215355852791</v>
       </c>
       <c r="L24">
-        <v>1.032075076330716</v>
+        <v>1.025799721968396</v>
       </c>
       <c r="M24">
-        <v>1.049596194502305</v>
+        <v>1.043692210288829</v>
       </c>
       <c r="N24">
-        <v>1.041932772717961</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.014390528872882</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.040264124165071</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.024694446897158</v>
+        <v>1.012877225475953</v>
       </c>
       <c r="D25">
-        <v>1.042315171889728</v>
+        <v>1.032838271912182</v>
       </c>
       <c r="E25">
-        <v>1.027610032990198</v>
+        <v>1.017879672529564</v>
       </c>
       <c r="F25">
-        <v>1.046054850283809</v>
+        <v>1.036395568348146</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.055395738652584</v>
+        <v>1.050173504834439</v>
       </c>
       <c r="J25">
-        <v>1.048418395974668</v>
+        <v>1.036978857499775</v>
       </c>
       <c r="K25">
-        <v>1.05429028502916</v>
+        <v>1.044947339770531</v>
       </c>
       <c r="L25">
-        <v>1.03979434159223</v>
+        <v>1.030206628216747</v>
       </c>
       <c r="M25">
-        <v>1.057977945915269</v>
+        <v>1.048453991155724</v>
       </c>
       <c r="N25">
-        <v>1.049907270352223</v>
+        <v>1.01586636918633</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.042899948486341</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_31/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.018597061830934</v>
+        <v>1.017252274316215</v>
       </c>
       <c r="D2">
-        <v>1.036805814928962</v>
+        <v>1.03488073189219</v>
       </c>
       <c r="E2">
-        <v>1.022415977362594</v>
+        <v>1.021277736760814</v>
       </c>
       <c r="F2">
-        <v>1.041172825269004</v>
+        <v>1.039443251747852</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.051781855700933</v>
+        <v>1.050874696804557</v>
       </c>
       <c r="J2">
-        <v>1.040235417603326</v>
+        <v>1.038928938902502</v>
       </c>
       <c r="K2">
-        <v>1.047775137946982</v>
+        <v>1.045874604527779</v>
       </c>
       <c r="L2">
-        <v>1.033571611260415</v>
+        <v>1.032448388919889</v>
       </c>
       <c r="M2">
-        <v>1.052086877882529</v>
+        <v>1.050379125125487</v>
       </c>
       <c r="N2">
-        <v>1.016984277777663</v>
+        <v>1.01730075210922</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.044851424392694</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.043516307898578</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024121186597949</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.022665571819369</v>
+        <v>1.021096972316969</v>
       </c>
       <c r="D3">
-        <v>1.039647800715665</v>
+        <v>1.037464492909711</v>
       </c>
       <c r="E3">
-        <v>1.025658084323255</v>
+        <v>1.024321639863128</v>
       </c>
       <c r="F3">
-        <v>1.044589870807956</v>
+        <v>1.042617937139634</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.052919218946874</v>
+        <v>1.051871652459992</v>
       </c>
       <c r="J3">
-        <v>1.042556858528221</v>
+        <v>1.041028580364569</v>
       </c>
       <c r="K3">
-        <v>1.049797319809214</v>
+        <v>1.047639440110745</v>
       </c>
       <c r="L3">
-        <v>1.035972862466141</v>
+        <v>1.034652498432171</v>
       </c>
       <c r="M3">
-        <v>1.054682316378203</v>
+        <v>1.052733075464735</v>
       </c>
       <c r="N3">
-        <v>1.017783462925876</v>
+        <v>1.01787328768214</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.046278618115087</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.044761261193593</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024499785534236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.025251846154131</v>
+        <v>1.023542598805901</v>
       </c>
       <c r="D4">
-        <v>1.041458907442815</v>
+        <v>1.039112532758087</v>
       </c>
       <c r="E4">
-        <v>1.027724704196203</v>
+        <v>1.026263581083467</v>
       </c>
       <c r="F4">
-        <v>1.046768018105536</v>
+        <v>1.044643333968992</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.053635219848736</v>
+        <v>1.052498962986846</v>
       </c>
       <c r="J4">
-        <v>1.044030944592466</v>
+        <v>1.042362670226077</v>
       </c>
       <c r="K4">
-        <v>1.051081441147151</v>
+        <v>1.048760753685476</v>
       </c>
       <c r="L4">
-        <v>1.037499646723766</v>
+        <v>1.036055033569524</v>
       </c>
       <c r="M4">
-        <v>1.056332950865034</v>
+        <v>1.054231232197239</v>
       </c>
       <c r="N4">
-        <v>1.018290782265445</v>
+        <v>1.01823705246001</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.047187474058519</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.045555082647339</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024738041505709</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.026332697169622</v>
+        <v>1.02456495087709</v>
       </c>
       <c r="D5">
-        <v>1.042218954016571</v>
+        <v>1.03980465787685</v>
       </c>
       <c r="E5">
-        <v>1.028590215738935</v>
+        <v>1.027077199223068</v>
       </c>
       <c r="F5">
-        <v>1.047680898932097</v>
+        <v>1.045492635968173</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.053934486476529</v>
+        <v>1.052761247853791</v>
       </c>
       <c r="J5">
-        <v>1.044648335282514</v>
+        <v>1.042921702106333</v>
       </c>
       <c r="K5">
-        <v>1.051620684659568</v>
+        <v>1.04923211889928</v>
       </c>
       <c r="L5">
-        <v>1.038139139213086</v>
+        <v>1.036642759505121</v>
       </c>
       <c r="M5">
-        <v>1.057024953811087</v>
+        <v>1.054859709471874</v>
       </c>
       <c r="N5">
-        <v>1.018503705087292</v>
+        <v>1.01838983929061</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.047575856037494</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.045896183364398</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024838182744037</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.02651881571888</v>
+        <v>1.024740908391375</v>
       </c>
       <c r="D6">
-        <v>1.042352447322952</v>
+        <v>1.03992644214568</v>
       </c>
       <c r="E6">
-        <v>1.028739942460718</v>
+        <v>1.027217895955729</v>
       </c>
       <c r="F6">
-        <v>1.047839617027399</v>
+        <v>1.045640370475883</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.053988044892426</v>
+        <v>1.052808387375755</v>
       </c>
       <c r="J6">
-        <v>1.044756757635375</v>
+        <v>1.043019987619095</v>
       </c>
       <c r="K6">
-        <v>1.051717083924573</v>
+        <v>1.049316815916982</v>
       </c>
       <c r="L6">
-        <v>1.038250919504409</v>
+        <v>1.036745531688743</v>
       </c>
       <c r="M6">
-        <v>1.057146578093172</v>
+        <v>1.05497035893716</v>
       </c>
       <c r="N6">
-        <v>1.018541682310234</v>
+        <v>1.01841714156764</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.047652672883469</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.045965597778281</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024856802788799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.025280512476267</v>
+        <v>1.023578836326353</v>
       </c>
       <c r="D7">
-        <v>1.041485910016193</v>
+        <v>1.039144711027965</v>
       </c>
       <c r="E7">
-        <v>1.027749311353138</v>
+        <v>1.026295093325992</v>
       </c>
       <c r="F7">
-        <v>1.046796087389585</v>
+        <v>1.044677081112352</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.053648889381961</v>
+        <v>1.052516337594083</v>
       </c>
       <c r="J7">
-        <v>1.044053062736353</v>
+        <v>1.042392159778329</v>
       </c>
       <c r="K7">
-        <v>1.051105306662257</v>
+        <v>1.048789727922781</v>
       </c>
       <c r="L7">
-        <v>1.037521083294075</v>
+        <v>1.03608329061187</v>
       </c>
       <c r="M7">
-        <v>1.056357894381913</v>
+        <v>1.054261782937007</v>
       </c>
       <c r="N7">
-        <v>1.018300011716137</v>
+        <v>1.018272401207237</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.047224260935779</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.045597487269351</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024746764987268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.019999746473913</v>
+        <v>1.018606120148208</v>
       </c>
       <c r="D8">
-        <v>1.037793210741948</v>
+        <v>1.035800612411254</v>
       </c>
       <c r="E8">
-        <v>1.023534726253648</v>
+        <v>1.02235402286331</v>
       </c>
       <c r="F8">
-        <v>1.042354479323644</v>
+        <v>1.040564139785772</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.052182566789452</v>
+        <v>1.051241690516685</v>
       </c>
       <c r="J8">
-        <v>1.041043288064727</v>
+        <v>1.039688028972988</v>
       </c>
       <c r="K8">
-        <v>1.048484473195845</v>
+        <v>1.046516531892212</v>
       </c>
       <c r="L8">
-        <v>1.034405068887592</v>
+        <v>1.033239474473583</v>
       </c>
       <c r="M8">
-        <v>1.052989740464652</v>
+        <v>1.051221309151529</v>
       </c>
       <c r="N8">
-        <v>1.017264532305521</v>
+        <v>1.017588749055756</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.045375680871856</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.043995174842576</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024264054212467</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.010299826489679</v>
+        <v>1.009454984863925</v>
       </c>
       <c r="D9">
-        <v>1.031036950752173</v>
+        <v>1.029670360998439</v>
       </c>
       <c r="E9">
-        <v>1.01583706391193</v>
+        <v>1.015141636568006</v>
       </c>
       <c r="F9">
-        <v>1.034239092968558</v>
+        <v>1.033038754419113</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.049425823781936</v>
+        <v>1.048825797344622</v>
       </c>
       <c r="J9">
-        <v>1.035494041538704</v>
+        <v>1.034678225015987</v>
       </c>
       <c r="K9">
-        <v>1.043645773836578</v>
+        <v>1.042299723900671</v>
       </c>
       <c r="L9">
-        <v>1.028678317092588</v>
+        <v>1.027993736795916</v>
       </c>
       <c r="M9">
-        <v>1.046800058273795</v>
+        <v>1.045617615225788</v>
       </c>
       <c r="N9">
-        <v>1.015351601676728</v>
+        <v>1.016231091905638</v>
       </c>
       <c r="Q9">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R9">
-        <v>1.041951295542185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.0410102272434</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.02334506810789</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.003563763916623</v>
+        <v>1.003154143946046</v>
       </c>
       <c r="D10">
-        <v>1.02637588832351</v>
+        <v>1.025483832082415</v>
       </c>
       <c r="E10">
-        <v>1.010526362445872</v>
+        <v>1.010215952590523</v>
       </c>
       <c r="F10">
-        <v>1.02864101973094</v>
+        <v>1.027893980741168</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.047478942348063</v>
+        <v>1.047141695571544</v>
       </c>
       <c r="J10">
-        <v>1.031636697614863</v>
+        <v>1.031243176011486</v>
       </c>
       <c r="K10">
-        <v>1.040284706584097</v>
+        <v>1.039407723337124</v>
       </c>
       <c r="L10">
-        <v>1.024708126002362</v>
+        <v>1.024403172559717</v>
       </c>
       <c r="M10">
-        <v>1.042511715718312</v>
+        <v>1.041777225487618</v>
       </c>
       <c r="N10">
-        <v>1.01402223331165</v>
+        <v>1.015413115726303</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.03959154049579</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.038983814652341</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.02270742381631</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.000595195828468</v>
+        <v>1.000449790712586</v>
       </c>
       <c r="D11">
-        <v>1.024337718417748</v>
+        <v>1.023709921956824</v>
       </c>
       <c r="E11">
-        <v>1.008197259887725</v>
+        <v>1.008122709658397</v>
       </c>
       <c r="F11">
-        <v>1.026188150235415</v>
+        <v>1.02569991117369</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.046620490089699</v>
+        <v>1.046436607461734</v>
       </c>
       <c r="J11">
-        <v>1.029943234903731</v>
+        <v>1.029803869829271</v>
       </c>
       <c r="K11">
-        <v>1.038814806744398</v>
+        <v>1.038198139906396</v>
       </c>
       <c r="L11">
-        <v>1.022966226072092</v>
+        <v>1.022893052244275</v>
       </c>
       <c r="M11">
-        <v>1.040632536682483</v>
+        <v>1.040152911198875</v>
       </c>
       <c r="N11">
-        <v>1.013441092071106</v>
+        <v>1.015255293784991</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.038584937677591</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.038164487674214</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.0224466506376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9994709455523104</v>
+        <v>0.9994329311306933</v>
       </c>
       <c r="D12">
-        <v>1.023562209847652</v>
+        <v>1.023040106417254</v>
       </c>
       <c r="E12">
-        <v>1.007315115093637</v>
+        <v>1.007336713305479</v>
       </c>
       <c r="F12">
-        <v>1.025257876094154</v>
+        <v>1.024873725173647</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.046290273330574</v>
+        <v>1.046168441792107</v>
       </c>
       <c r="J12">
-        <v>1.029297712801928</v>
+        <v>1.029261309734232</v>
       </c>
       <c r="K12">
-        <v>1.038251501601766</v>
+        <v>1.03773881746902</v>
       </c>
       <c r="L12">
-        <v>1.022303498246015</v>
+        <v>1.022324690493489</v>
       </c>
       <c r="M12">
-        <v>1.039916662211099</v>
+        <v>1.039539410810447</v>
       </c>
       <c r="N12">
-        <v>1.01321822480875</v>
+        <v>1.015211168005129</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.038186666170792</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.037839741089168</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022346683836565</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9997105401567524</v>
+        <v>0.9996493533088378</v>
       </c>
       <c r="D13">
-        <v>1.023726495020228</v>
+        <v>1.02318162919381</v>
       </c>
       <c r="E13">
-        <v>1.007502764493191</v>
+        <v>1.007503616500943</v>
       </c>
       <c r="F13">
-        <v>1.02545552201656</v>
+        <v>1.0250489396555</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.046359919289422</v>
+        <v>1.046224719703085</v>
       </c>
       <c r="J13">
-        <v>1.029434489625909</v>
+        <v>1.029375885196191</v>
       </c>
       <c r="K13">
-        <v>1.038370268284339</v>
+        <v>1.037835195795471</v>
       </c>
       <c r="L13">
-        <v>1.022444065310229</v>
+        <v>1.022444901364513</v>
       </c>
       <c r="M13">
-        <v>1.040068307498261</v>
+        <v>1.039668999734146</v>
       </c>
       <c r="N13">
-        <v>1.013265179764462</v>
+        <v>1.015219244439464</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.038268155523105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.037905157719422</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022367391767557</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.000501611842414</v>
+        <v>1.000365013192603</v>
       </c>
       <c r="D14">
-        <v>1.024272741040239</v>
+        <v>1.023653632746583</v>
       </c>
       <c r="E14">
-        <v>1.008123678999102</v>
+        <v>1.008057013080664</v>
       </c>
       <c r="F14">
-        <v>1.026110451156892</v>
+        <v>1.025630761364515</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.04659269302303</v>
+        <v>1.046413908200391</v>
       </c>
       <c r="J14">
-        <v>1.029889162309579</v>
+        <v>1.029758247435716</v>
       </c>
       <c r="K14">
-        <v>1.038767368937648</v>
+        <v>1.038159252238303</v>
       </c>
       <c r="L14">
-        <v>1.022910773777186</v>
+        <v>1.022845340528187</v>
       </c>
       <c r="M14">
-        <v>1.040572553810161</v>
+        <v>1.040101339366975</v>
       </c>
       <c r="N14">
-        <v>1.013422309761922</v>
+        <v>1.015251026632524</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.038550334828843</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.038135826722159</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022438072293267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.000991620441692</v>
+        <v>1.000809195509307</v>
       </c>
       <c r="D15">
-        <v>1.024613109435796</v>
+        <v>1.023948733542245</v>
       </c>
       <c r="E15">
-        <v>1.00850903532317</v>
+        <v>1.008401350547129</v>
       </c>
       <c r="F15">
-        <v>1.026517401759399</v>
+        <v>1.025993187820637</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.046738272639084</v>
+        <v>1.04653294876499</v>
       </c>
       <c r="J15">
-        <v>1.030172365381927</v>
+        <v>1.029997464328499</v>
       </c>
       <c r="K15">
-        <v>1.039015885601876</v>
+        <v>1.03836321515077</v>
       </c>
       <c r="L15">
-        <v>1.023201202050075</v>
+        <v>1.023095492892534</v>
       </c>
       <c r="M15">
-        <v>1.040886735534089</v>
+        <v>1.040371711577024</v>
       </c>
       <c r="N15">
-        <v>1.01352070736248</v>
+        <v>1.015274148849026</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.038731887489774</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.038286446595533</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022483104132823</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.003794421399029</v>
+        <v>1.003365167570615</v>
       </c>
       <c r="D16">
-        <v>1.026550556355058</v>
+        <v>1.025638913974215</v>
       </c>
       <c r="E16">
-        <v>1.010712358482134</v>
+        <v>1.010384297730994</v>
       </c>
       <c r="F16">
-        <v>1.028841176641075</v>
+        <v>1.028074915340675</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.047558891096749</v>
+        <v>1.047210050794434</v>
       </c>
       <c r="J16">
-        <v>1.031781992209885</v>
+        <v>1.031369543943354</v>
       </c>
       <c r="K16">
-        <v>1.040421106786159</v>
+        <v>1.039524817027885</v>
       </c>
       <c r="L16">
-        <v>1.024854736952175</v>
+        <v>1.024532423366289</v>
       </c>
       <c r="M16">
-        <v>1.042673306338237</v>
+        <v>1.04191987302803</v>
       </c>
       <c r="N16">
-        <v>1.014076624415162</v>
+        <v>1.015437997160065</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.039728567738414</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.039111175744801</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02273711624888</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.005532923411443</v>
+        <v>1.00496530471741</v>
       </c>
       <c r="D17">
-        <v>1.027754248564185</v>
+        <v>1.026700503927979</v>
       </c>
       <c r="E17">
-        <v>1.012081340623686</v>
+        <v>1.011630110850323</v>
       </c>
       <c r="F17">
-        <v>1.03028501093664</v>
+        <v>1.029380721889488</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.04806582436187</v>
+        <v>1.047635689572929</v>
       </c>
       <c r="J17">
-        <v>1.032780127496643</v>
+        <v>1.03223400179295</v>
       </c>
       <c r="K17">
-        <v>1.041292537213008</v>
+        <v>1.040256030876906</v>
       </c>
       <c r="L17">
-        <v>1.025880804997207</v>
+        <v>1.025437249337297</v>
       </c>
       <c r="M17">
-        <v>1.043782083618139</v>
+        <v>1.042892491918937</v>
       </c>
       <c r="N17">
-        <v>1.014421322931112</v>
+        <v>1.0155782905682</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.040347265144544</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.039630980217772</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022897647105685</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.006529312233376</v>
+        <v>1.005888283550067</v>
       </c>
       <c r="D18">
-        <v>1.028439879651396</v>
+        <v>1.027309078556748</v>
       </c>
       <c r="E18">
-        <v>1.012865317241187</v>
+        <v>1.012348918310919</v>
       </c>
       <c r="F18">
-        <v>1.031110533321773</v>
+        <v>1.030131885247123</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.04835151530228</v>
+        <v>1.047877878467174</v>
       </c>
       <c r="J18">
-        <v>1.033347899319957</v>
+        <v>1.032730669539097</v>
       </c>
       <c r="K18">
-        <v>1.04178511959369</v>
+        <v>1.040672502913264</v>
       </c>
       <c r="L18">
-        <v>1.026465613231274</v>
+        <v>1.025957844296137</v>
       </c>
       <c r="M18">
-        <v>1.044413029422251</v>
+        <v>1.043450011636904</v>
       </c>
       <c r="N18">
-        <v>1.014616034585425</v>
+        <v>1.015671370501112</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.040683960196256</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.039912724065906</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022988005562644</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.006876214906212</v>
+        <v>1.006210466684607</v>
       </c>
       <c r="D19">
-        <v>1.028682537131817</v>
+        <v>1.027525605407338</v>
       </c>
       <c r="E19">
-        <v>1.0131395262965</v>
+        <v>1.012601171815001</v>
       </c>
       <c r="F19">
-        <v>1.031400307835085</v>
+        <v>1.030396487749258</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.048454048084491</v>
+        <v>1.047965667762578</v>
       </c>
       <c r="J19">
-        <v>1.033548816581329</v>
+        <v>1.032907617751131</v>
       </c>
       <c r="K19">
-        <v>1.041961890841659</v>
+        <v>1.040823454055622</v>
       </c>
       <c r="L19">
-        <v>1.026671896073062</v>
+        <v>1.026142484387413</v>
       </c>
       <c r="M19">
-        <v>1.044636423786156</v>
+        <v>1.043648539715068</v>
       </c>
       <c r="N19">
-        <v>1.014685998775546</v>
+        <v>1.01570845815577</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.040815297756581</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.040026428082325</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023021826349313</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.005346277612419</v>
+        <v>1.004792938587584</v>
       </c>
       <c r="D20">
-        <v>1.027624566644756</v>
+        <v>1.026585635047883</v>
       </c>
       <c r="E20">
-        <v>1.011934168359691</v>
+        <v>1.011495639286765</v>
       </c>
       <c r="F20">
-        <v>1.030129689199657</v>
+        <v>1.029239746231203</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.048011160063047</v>
+        <v>1.047589457662265</v>
       </c>
       <c r="J20">
-        <v>1.03267265354206</v>
+        <v>1.032140342612123</v>
       </c>
       <c r="K20">
-        <v>1.041198461785615</v>
+        <v>1.040176579626903</v>
       </c>
       <c r="L20">
-        <v>1.025770366319042</v>
+        <v>1.025339319313557</v>
       </c>
       <c r="M20">
-        <v>1.043662655620897</v>
+        <v>1.042787223227592</v>
       </c>
       <c r="N20">
-        <v>1.014384102831903</v>
+        <v>1.015561453498391</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.040279423403913</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.039573349026248</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022880078906671</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.000280648523118</v>
+        <v>1.000188930021243</v>
       </c>
       <c r="D21">
-        <v>1.024125370962239</v>
+        <v>1.023545343110119</v>
       </c>
       <c r="E21">
-        <v>1.007951811083329</v>
+        <v>1.007925950699374</v>
       </c>
       <c r="F21">
-        <v>1.025930522998934</v>
+        <v>1.02549075796522</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.046532072727143</v>
+        <v>1.046378049153601</v>
       </c>
       <c r="J21">
-        <v>1.029766640621973</v>
+        <v>1.029678754271652</v>
       </c>
       <c r="K21">
-        <v>1.038663655643462</v>
+        <v>1.03809396248362</v>
       </c>
       <c r="L21">
-        <v>1.022784083902028</v>
+        <v>1.022758703437601</v>
       </c>
       <c r="M21">
-        <v>1.040436741248972</v>
+        <v>1.040004774635519</v>
       </c>
       <c r="N21">
-        <v>1.013381463572868</v>
+        <v>1.015313751356384</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.038490458057652</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.038104428543043</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022427497441438</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9970151514007256</v>
+        <v>0.9972224623386935</v>
       </c>
       <c r="D22">
-        <v>1.021869741945757</v>
+        <v>1.02158706984272</v>
       </c>
       <c r="E22">
-        <v>1.005390530033189</v>
+        <v>1.005632251361951</v>
       </c>
       <c r="F22">
-        <v>1.023228139889902</v>
+        <v>1.023080579524962</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.045566354491574</v>
+        <v>1.045586055328515</v>
       </c>
       <c r="J22">
-        <v>1.027886913711678</v>
+        <v>1.028085050154194</v>
       </c>
       <c r="K22">
-        <v>1.037020057793168</v>
+        <v>1.036742678885891</v>
       </c>
       <c r="L22">
-        <v>1.020855950530102</v>
+        <v>1.021092951922446</v>
       </c>
       <c r="M22">
-        <v>1.038353072199949</v>
+        <v>1.038208264945021</v>
       </c>
       <c r="N22">
-        <v>1.012730951987342</v>
+        <v>1.015140569983647</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.037314936887725</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.03713428957265</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022130273907242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9987386936722872</v>
+        <v>0.9987724243285955</v>
       </c>
       <c r="D23">
-        <v>1.023053352985775</v>
+        <v>1.022601458783162</v>
       </c>
       <c r="E23">
-        <v>1.006739685717946</v>
+        <v>1.006825639819201</v>
       </c>
       <c r="F23">
-        <v>1.024650005729306</v>
+        <v>1.024335154270985</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.04607146657223</v>
+        <v>1.045991096070995</v>
       </c>
       <c r="J23">
-        <v>1.028873745701645</v>
+        <v>1.028906028065451</v>
       </c>
       <c r="K23">
-        <v>1.037878978255126</v>
+        <v>1.037435327962868</v>
       </c>
       <c r="L23">
-        <v>1.021869054106776</v>
+        <v>1.021953374099934</v>
       </c>
       <c r="M23">
-        <v>1.039446579005084</v>
+        <v>1.03913744711891</v>
       </c>
       <c r="N23">
-        <v>1.013070673051709</v>
+        <v>1.015184172467954</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.037912632504913</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.037613481227169</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.02227961652007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.005407953334194</v>
+        <v>1.004850275463665</v>
       </c>
       <c r="D24">
-        <v>1.027657125103172</v>
+        <v>1.02661341758858</v>
       </c>
       <c r="E24">
-        <v>1.011979768309848</v>
+        <v>1.011537476881347</v>
       </c>
       <c r="F24">
-        <v>1.030175061005066</v>
+        <v>1.029280589579971</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.04802064243586</v>
+        <v>1.047596435881563</v>
       </c>
       <c r="J24">
-        <v>1.032699406109499</v>
+        <v>1.032162887963257</v>
       </c>
       <c r="K24">
-        <v>1.041215355852791</v>
+        <v>1.040188752948453</v>
       </c>
       <c r="L24">
-        <v>1.025799721968396</v>
+        <v>1.025364966261465</v>
       </c>
       <c r="M24">
-        <v>1.043692210288829</v>
+        <v>1.042812303065098</v>
       </c>
       <c r="N24">
-        <v>1.014390528872882</v>
+        <v>1.01556152438307</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.040264124165071</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.039552037354661</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022880059027881</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.012877225475953</v>
+        <v>1.011872501910982</v>
       </c>
       <c r="D25">
-        <v>1.032838271912182</v>
+        <v>1.031295114217112</v>
       </c>
       <c r="E25">
-        <v>1.017879672529564</v>
+        <v>1.017042589416491</v>
       </c>
       <c r="F25">
-        <v>1.036395568348146</v>
+        <v>1.035027279610763</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.050173504834439</v>
+        <v>1.04947587985286</v>
       </c>
       <c r="J25">
-        <v>1.036978857499775</v>
+        <v>1.036006810248488</v>
       </c>
       <c r="K25">
-        <v>1.044947339770531</v>
+        <v>1.043426289513927</v>
       </c>
       <c r="L25">
-        <v>1.030206628216747</v>
+        <v>1.029381978842059</v>
       </c>
       <c r="M25">
-        <v>1.048453991155724</v>
+        <v>1.047105130561456</v>
       </c>
       <c r="N25">
-        <v>1.01586636918633</v>
+        <v>1.016562439501831</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.042899948486341</v>
+        <v>1.041837951947351</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023594508277478</v>
       </c>
     </row>
   </sheetData>
